--- a/simulacion_TSM.xlsx
+++ b/simulacion_TSM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,492 +461,478 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45847.5625</v>
+        <v>45847.60416666666</v>
       </c>
       <c r="B2" t="n">
+        <v>231.0700073242188</v>
+      </c>
+      <c r="C2" t="n">
         <v>231.1900024414062</v>
       </c>
-      <c r="C2" t="n">
-        <v>317.9429856514889</v>
-      </c>
       <c r="D2" t="n">
-        <v>299.2246510811449</v>
+        <v>227.2487700910526</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45847.60416666666</v>
+        <v>45847.64583333334</v>
       </c>
       <c r="B3" t="n">
+        <v>232.0500030517578</v>
+      </c>
+      <c r="C3" t="n">
         <v>231.0700073242188</v>
       </c>
-      <c r="C3" t="n">
-        <v>227.8894332852733</v>
-      </c>
       <c r="D3" t="n">
-        <v>225.1980835205039</v>
+        <v>225.8158038976075</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45847.64583333334</v>
+        <v>45847.6875</v>
       </c>
       <c r="B4" t="n">
+        <v>232.4015045166016</v>
+      </c>
+      <c r="C4" t="n">
         <v>232.0500030517578</v>
       </c>
-      <c r="C4" t="n">
-        <v>231.644195767956</v>
-      </c>
       <c r="D4" t="n">
-        <v>233.5990422387375</v>
+        <v>226.4340517966289</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45847.6875</v>
+        <v>45847.72916666666</v>
       </c>
       <c r="B5" t="n">
+        <v>232.8600006103516</v>
+      </c>
+      <c r="C5" t="n">
         <v>232.4015045166016</v>
       </c>
-      <c r="C5" t="n">
-        <v>232.5442874718737</v>
-      </c>
       <c r="D5" t="n">
-        <v>235.2519907269593</v>
+        <v>231.8924958777332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45847.72916666666</v>
+        <v>45847.77083333334</v>
       </c>
       <c r="B6" t="n">
+        <v>232.5731964111328</v>
+      </c>
+      <c r="C6" t="n">
         <v>232.8600006103516</v>
       </c>
-      <c r="C6" t="n">
-        <v>236.0344177710898</v>
-      </c>
       <c r="D6" t="n">
-        <v>223.8641596320142</v>
+        <v>235.5706384732566</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45847.77083333334</v>
+        <v>45847.8125</v>
       </c>
       <c r="B7" t="n">
+        <v>231.8800048828125</v>
+      </c>
+      <c r="C7" t="n">
         <v>232.5731964111328</v>
       </c>
-      <c r="C7" t="n">
-        <v>233.9954124900983</v>
-      </c>
       <c r="D7" t="n">
-        <v>231.9964603735148</v>
+        <v>232.8436628164346</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45847.8125</v>
+        <v>45848.5625</v>
       </c>
       <c r="B8" t="n">
+        <v>229.20849609375</v>
+      </c>
+      <c r="C8" t="n">
         <v>231.8800048828125</v>
       </c>
-      <c r="C8" t="n">
-        <v>235.7786461934044</v>
-      </c>
       <c r="D8" t="n">
-        <v>233.3750377594714</v>
+        <v>226.224773302303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45848.5625</v>
+        <v>45848.60416666666</v>
       </c>
       <c r="B9" t="n">
+        <v>230.0700073242188</v>
+      </c>
+      <c r="C9" t="n">
         <v>229.20849609375</v>
       </c>
-      <c r="C9" t="n">
-        <v>233.152181665315</v>
-      </c>
       <c r="D9" t="n">
-        <v>235.0920892032379</v>
+        <v>224.2264871855836</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45848.60416666666</v>
+        <v>45848.64583333334</v>
       </c>
       <c r="B10" t="n">
+        <v>229.8300018310547</v>
+      </c>
+      <c r="C10" t="n">
         <v>230.0700073242188</v>
       </c>
-      <c r="C10" t="n">
-        <v>228.5090849552465</v>
-      </c>
       <c r="D10" t="n">
-        <v>226.1205573049299</v>
+        <v>225.4344317487278</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45848.64583333334</v>
+        <v>45848.6875</v>
       </c>
       <c r="B11" t="n">
+        <v>230.0399932861328</v>
+      </c>
+      <c r="C11" t="n">
         <v>229.8300018310547</v>
       </c>
-      <c r="C11" t="n">
-        <v>228.6282129458665</v>
-      </c>
       <c r="D11" t="n">
-        <v>228.7952958476512</v>
+        <v>230.1408826919372</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45848.6875</v>
+        <v>45848.72916666666</v>
       </c>
       <c r="B12" t="n">
+        <v>229.8023986816406</v>
+      </c>
+      <c r="C12" t="n">
         <v>230.0399932861328</v>
       </c>
-      <c r="C12" t="n">
-        <v>234.4668909473213</v>
-      </c>
       <c r="D12" t="n">
-        <v>234.1871531941543</v>
+        <v>224.7807957283161</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45848.72916666666</v>
+        <v>45848.77083333334</v>
       </c>
       <c r="B13" t="n">
+        <v>229.8699951171875</v>
+      </c>
+      <c r="C13" t="n">
         <v>229.8023986816406</v>
       </c>
-      <c r="C13" t="n">
-        <v>232.4480240687897</v>
-      </c>
       <c r="D13" t="n">
-        <v>228.235717316895</v>
+        <v>230.0397846004314</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45848.77083333334</v>
+        <v>45848.8125</v>
       </c>
       <c r="B14" t="n">
+        <v>229.9100036621094</v>
+      </c>
+      <c r="C14" t="n">
         <v>229.8699951171875</v>
       </c>
-      <c r="C14" t="n">
-        <v>229.7270443328424</v>
-      </c>
       <c r="D14" t="n">
-        <v>233.9636665720933</v>
+        <v>237.05507798265</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45848.8125</v>
+        <v>45849.5625</v>
       </c>
       <c r="B15" t="n">
+        <v>230.6909027099609</v>
+      </c>
+      <c r="C15" t="n">
         <v>229.9100036621094</v>
       </c>
-      <c r="C15" t="n">
-        <v>226.3749684431229</v>
-      </c>
       <c r="D15" t="n">
-        <v>228.8630462697208</v>
+        <v>231.5934559709231</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45849.5625</v>
+        <v>45849.60416666666</v>
       </c>
       <c r="B16" t="n">
+        <v>230.3200073242188</v>
+      </c>
+      <c r="C16" t="n">
         <v>230.6909027099609</v>
       </c>
-      <c r="C16" t="n">
-        <v>235.2891340385128</v>
-      </c>
       <c r="D16" t="n">
-        <v>224.8984225771048</v>
+        <v>235.0129916631614</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45849.60416666666</v>
+        <v>45849.64583333334</v>
       </c>
       <c r="B17" t="n">
+        <v>231.5500030517578</v>
+      </c>
+      <c r="C17" t="n">
         <v>230.3200073242188</v>
       </c>
-      <c r="C17" t="n">
-        <v>228.1312155184505</v>
-      </c>
       <c r="D17" t="n">
-        <v>222.4857107373912</v>
+        <v>220.6230412154993</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45849.64583333334</v>
+        <v>45849.6875</v>
       </c>
       <c r="B18" t="n">
+        <v>231.5700073242188</v>
+      </c>
+      <c r="C18" t="n">
         <v>231.5500030517578</v>
       </c>
-      <c r="C18" t="n">
-        <v>231.6921828008554</v>
-      </c>
       <c r="D18" t="n">
-        <v>230.911678132187</v>
+        <v>232.2085522082882</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45849.6875</v>
+        <v>45849.72916666666</v>
       </c>
       <c r="B19" t="n">
+        <v>231.25</v>
+      </c>
+      <c r="C19" t="n">
         <v>231.5700073242188</v>
       </c>
-      <c r="C19" t="n">
-        <v>234.3575298761787</v>
-      </c>
       <c r="D19" t="n">
-        <v>230.0850952692899</v>
+        <v>234.9184864317685</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45849.72916666666</v>
+        <v>45849.77083333334</v>
       </c>
       <c r="B20" t="n">
+        <v>230.3600006103516</v>
+      </c>
+      <c r="C20" t="n">
         <v>231.25</v>
       </c>
-      <c r="C20" t="n">
-        <v>234.0136825279886</v>
-      </c>
       <c r="D20" t="n">
-        <v>242.4771115120834</v>
+        <v>229.653119195338</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45849.77083333334</v>
+        <v>45849.8125</v>
       </c>
       <c r="B21" t="n">
         <v>230.3600006103516</v>
       </c>
       <c r="C21" t="n">
-        <v>234.6255536828963</v>
+        <v>230.3600006103516</v>
       </c>
       <c r="D21" t="n">
-        <v>233.7950867779197</v>
+        <v>225.2614781701531</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45849.8125</v>
+        <v>45852.5625</v>
       </c>
       <c r="B22" t="n">
+        <v>228.0350036621094</v>
+      </c>
+      <c r="C22" t="n">
         <v>230.3600006103516</v>
       </c>
-      <c r="C22" t="n">
-        <v>229.9968505677573</v>
-      </c>
       <c r="D22" t="n">
-        <v>237.157510198215</v>
+        <v>230.1404909811272</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45852.5625</v>
+        <v>45852.60416666666</v>
       </c>
       <c r="B23" t="n">
+        <v>228.6999969482422</v>
+      </c>
+      <c r="C23" t="n">
         <v>228.0350036621094</v>
       </c>
-      <c r="C23" t="n">
-        <v>230.6277661472178</v>
-      </c>
       <c r="D23" t="n">
-        <v>235.1860715924691</v>
+        <v>228.8489302236119</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45852.60416666666</v>
+        <v>45852.64583333334</v>
       </c>
       <c r="B24" t="n">
+        <v>228.5800018310547</v>
+      </c>
+      <c r="C24" t="n">
         <v>228.6999969482422</v>
       </c>
-      <c r="C24" t="n">
-        <v>224.065427737838</v>
-      </c>
       <c r="D24" t="n">
-        <v>226.1058539118328</v>
+        <v>226.6834112690531</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45852.64583333334</v>
+        <v>45852.6875</v>
       </c>
       <c r="B25" t="n">
+        <v>229.5899963378906</v>
+      </c>
+      <c r="C25" t="n">
         <v>228.5800018310547</v>
       </c>
-      <c r="C25" t="n">
-        <v>226.5367041012246</v>
-      </c>
       <c r="D25" t="n">
-        <v>227.5406602123047</v>
+        <v>238.1465537965189</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45852.6875</v>
+        <v>45852.72916666666</v>
       </c>
       <c r="B26" t="n">
+        <v>229.0200042724609</v>
+      </c>
+      <c r="C26" t="n">
         <v>229.5899963378906</v>
       </c>
-      <c r="C26" t="n">
-        <v>227.9422744825569</v>
-      </c>
       <c r="D26" t="n">
-        <v>231.5910155619218</v>
+        <v>220.5626103089149</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45852.72916666666</v>
+        <v>45852.77083333334</v>
       </c>
       <c r="B27" t="n">
+        <v>229.1049957275391</v>
+      </c>
+      <c r="C27" t="n">
         <v>229.0200042724609</v>
       </c>
-      <c r="C27" t="n">
-        <v>232.3557379298359</v>
-      </c>
       <c r="D27" t="n">
-        <v>226.6822550716926</v>
+        <v>233.2263851522979</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45852.77083333334</v>
+        <v>45852.8125</v>
       </c>
       <c r="B28" t="n">
+        <v>228.6699981689453</v>
+      </c>
+      <c r="C28" t="n">
         <v>229.1049957275391</v>
       </c>
-      <c r="C28" t="n">
-        <v>225.036445320045</v>
-      </c>
       <c r="D28" t="n">
-        <v>223.5113175583907</v>
+        <v>224.7608805299284</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45852.8125</v>
+        <v>45853.5625</v>
       </c>
       <c r="B29" t="n">
+        <v>235.75</v>
+      </c>
+      <c r="C29" t="n">
         <v>228.6699981689453</v>
       </c>
-      <c r="C29" t="n">
-        <v>235.6283133214544</v>
-      </c>
       <c r="D29" t="n">
-        <v>231.6732381767088</v>
+        <v>234.2132155466955</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45853.5625</v>
+        <v>45853.60416666666</v>
       </c>
       <c r="B30" t="n">
+        <v>236.8399963378906</v>
+      </c>
+      <c r="C30" t="n">
         <v>235.75</v>
       </c>
-      <c r="C30" t="n">
-        <v>233.9769495665179</v>
-      </c>
       <c r="D30" t="n">
-        <v>229.784732867256</v>
+        <v>237.3155049254995</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45853.60416666666</v>
+        <v>45853.64583333334</v>
       </c>
       <c r="B31" t="n">
+        <v>236.7299957275391</v>
+      </c>
+      <c r="C31" t="n">
         <v>236.8399963378906</v>
       </c>
-      <c r="C31" t="n">
-        <v>234.381895759612</v>
-      </c>
       <c r="D31" t="n">
-        <v>231.6067305801906</v>
+        <v>243.4179708486092</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853.64583333334</v>
+        <v>45853.6875</v>
       </c>
       <c r="B32" t="n">
+        <v>236.0200042724609</v>
+      </c>
+      <c r="C32" t="n">
         <v>236.7299957275391</v>
       </c>
-      <c r="C32" t="n">
-        <v>230.8223766621166</v>
-      </c>
       <c r="D32" t="n">
-        <v>241.633678362015</v>
+        <v>244.0833319222015</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45853.6875</v>
+        <v>45853.72916666666</v>
       </c>
       <c r="B33" t="n">
+        <v>237.2599945068359</v>
+      </c>
+      <c r="C33" t="n">
         <v>236.0200042724609</v>
       </c>
-      <c r="C33" t="n">
-        <v>231.8565535730626</v>
-      </c>
       <c r="D33" t="n">
-        <v>237.1531398403925</v>
+        <v>236.9673725024724</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45853.72916666666</v>
+        <v>45853.77083333334</v>
       </c>
       <c r="B34" t="n">
+        <v>237.2799987792969</v>
+      </c>
+      <c r="C34" t="n">
         <v>237.2599945068359</v>
       </c>
-      <c r="C34" t="n">
-        <v>233.6955860762776</v>
-      </c>
       <c r="D34" t="n">
-        <v>236.4012277344542</v>
+        <v>245.3206976687475</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45853.77083333334</v>
+        <v>45853.8125</v>
       </c>
       <c r="B35" t="n">
+        <v>236.8780059814453</v>
+      </c>
+      <c r="C35" t="n">
         <v>237.2799987792969</v>
       </c>
-      <c r="C35" t="n">
-        <v>243.2841793947142</v>
-      </c>
       <c r="D35" t="n">
-        <v>231.2553464077142</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45853.8125</v>
-      </c>
-      <c r="B36" t="n">
-        <v>236.8780059814453</v>
-      </c>
-      <c r="C36" t="n">
-        <v>237.4113871415965</v>
-      </c>
-      <c r="D36" t="n">
-        <v>237.392794077781</v>
+        <v>240.915593144717</v>
       </c>
     </row>
   </sheetData>
